--- a/APM files/137718196/137718196 IMPORT EPCUserAccount-Import.xlsx
+++ b/APM files/137718196/137718196 IMPORT EPCUserAccount-Import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/137718196/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9642B02D-EB36-914B-BFDB-4E05C323A84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB67C183-E62D-A742-B82B-C6CB3090B07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24720" yWindow="9700" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28540" yWindow="7420" windowWidth="20840" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Success" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -38,13 +38,31 @@
   </si>
   <si>
     <t>attach</t>
+  </si>
+  <si>
+    <t>etx-MichaelZink</t>
+  </si>
+  <si>
+    <t>Multi Roles</t>
+  </si>
+  <si>
+    <t>ETX-rentalsunited-1494813</t>
+  </si>
+  <si>
+    <t>External User Profile</t>
+  </si>
+  <si>
+    <t>ThomasNewman1</t>
+  </si>
+  <si>
+    <t>Hotelier Admin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -62,6 +80,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF121617"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -90,10 +114,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,11 +433,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -441,8 +466,105 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>84023508</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>69965043</v>
+      </c>
       <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>84023508</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3">
+        <v>69993572</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>84023508</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3">
+        <v>72864339</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>83963077</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3">
+        <v>69965043</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>83963077</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3">
+        <v>69993572</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>83963077</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3">
+        <v>72864339</v>
+      </c>
+      <c r="E7" t="s">
         <v>5</v>
       </c>
     </row>
